--- a/実験結果/実験結果(グラフ)4proIMP2_M100000.xlsx
+++ b/実験結果/実験結果(グラフ)4proIMP2_M100000.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\新井諒介\Documents\中田班\研究関連\M1\実験\4pro\program10000\実験結果\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10EEF57F-38DE-4508-ABDE-F56CF4ED5BDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D0ADFDC-5C30-43D6-BAAB-9D57B1A29343}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1163" windowWidth="13680" windowHeight="9532" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="165" yWindow="2858" windowWidth="13620" windowHeight="9510" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1 (2)" sheetId="3" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="31">
   <si>
     <t>箱ひげ図データ</t>
   </si>
@@ -216,6 +216,28 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>提案手法</t>
+    <rPh sb="0" eb="4">
+      <t>テイアンシュホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LMCLF
+(α＝1000)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LMCLF
+(α＝100)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LMCLF
+(α＝1)</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -283,7 +305,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -313,6 +335,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1734,39 +1759,17 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP"/>
-              <a:t>4</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="ja-JP" altLang="en-US"/>
-              <a:t>プロセッサ</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.16617214417758217"/>
-          <c:y val="0.119616447944007"/>
+          <c:x val="0.16617216737872958"/>
+          <c:y val="6.926635416034467E-2"/>
           <c:w val="0.71972623235004285"/>
-          <c:h val="0.76521364829396321"/>
+          <c:h val="0.8200080940613923"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -1829,19 +1832,22 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>α＝1000</c:v>
+                  <c:v>LMCLF
+(α＝1000)</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>α=100</c:v>
+                  <c:v>LMCLF
+(α＝100)</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>α＝1 </c:v>
+                  <c:v>LMCLF
+(α＝1)</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>LLF</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>マルチ(LW)</c:v>
+                  <c:v>提案手法</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2025,19 +2031,22 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>α＝1000</c:v>
+                  <c:v>LMCLF
+(α＝1000)</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>α=100</c:v>
+                  <c:v>LMCLF
+(α＝100)</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>α＝1 </c:v>
+                  <c:v>LMCLF
+(α＝1)</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>LLF</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>マルチ(LW)</c:v>
+                  <c:v>提案手法</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2250,19 +2259,22 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>α＝1000</c:v>
+                  <c:v>LMCLF
+(α＝1000)</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>α=100</c:v>
+                  <c:v>LMCLF
+(α＝100)</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>α＝1 </c:v>
+                  <c:v>LMCLF
+(α＝1)</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>LLF</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>マルチ(LW)</c:v>
+                  <c:v>提案手法</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2336,19 +2348,22 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>α＝1000</c:v>
+                  <c:v>LMCLF
+(α＝1000)</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>α=100</c:v>
+                  <c:v>LMCLF
+(α＝100)</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>α＝1 </c:v>
+                  <c:v>LMCLF
+(α＝1)</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>LLF</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>マルチ(LW)</c:v>
+                  <c:v>提案手法</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2408,6 +2423,16 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
+        <c:txPr>
+          <a:bodyPr rot="0" vert="horz" anchor="t" anchorCtr="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
         <c:crossAx val="218670592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
@@ -2436,7 +2461,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="ja-JP" altLang="en-US"/>
-                  <a:t>最悪メモリ消費量</a:t>
+                  <a:t>最悪メモリ使用量平均</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -2634,19 +2659,22 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>α＝1000</c:v>
+                  <c:v>LMCLF
+(α＝1000)</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>α=100</c:v>
+                  <c:v>LMCLF
+(α＝100)</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>α＝1 </c:v>
+                  <c:v>LMCLF
+(α＝1)</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>LLF</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>マルチ(LW)</c:v>
+                  <c:v>提案手法</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2830,19 +2858,22 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>α＝1000</c:v>
+                  <c:v>LMCLF
+(α＝1000)</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>α=100</c:v>
+                  <c:v>LMCLF
+(α＝100)</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>α＝1 </c:v>
+                  <c:v>LMCLF
+(α＝1)</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>LLF</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>マルチ(LW)</c:v>
+                  <c:v>提案手法</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3055,19 +3086,22 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>α＝1000</c:v>
+                  <c:v>LMCLF
+(α＝1000)</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>α=100</c:v>
+                  <c:v>LMCLF
+(α＝100)</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>α＝1 </c:v>
+                  <c:v>LMCLF
+(α＝1)</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>LLF</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>マルチ(LW)</c:v>
+                  <c:v>提案手法</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3260,15 +3294,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>134471</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>129710</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>90488</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>941295</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>376237</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3297,16 +3331,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>414338</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>414337</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4016,8 +4050,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.75"/>
@@ -4189,28 +4223,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="28" spans="1:8" ht="30" x14ac:dyDescent="0.75">
       <c r="A28" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="7" t="str">
-        <f>B4</f>
-        <v>α＝1000</v>
-      </c>
-      <c r="C28" s="7" t="str">
-        <f>C4</f>
-        <v>α=100</v>
-      </c>
-      <c r="D28" s="7" t="str">
-        <f t="shared" ref="D28" si="0">D4</f>
-        <v xml:space="preserve">α＝1 </v>
+      <c r="B28" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>30</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="F28" s="7" t="str">
-        <f t="shared" ref="F28" si="1">F4</f>
-        <v>マルチ(LW)</v>
+      <c r="F28" s="7" t="s">
+        <v>27</v>
       </c>
       <c r="H28" s="5"/>
     </row>
@@ -4223,7 +4253,7 @@
         <v>42995249</v>
       </c>
       <c r="C29" s="8">
-        <f t="shared" ref="C29" si="2">C8</f>
+        <f t="shared" ref="C29" si="0">C8</f>
         <v>41917413</v>
       </c>
       <c r="D29" s="8">
@@ -4249,7 +4279,7 @@
         <v>11561190</v>
       </c>
       <c r="C30" s="8">
-        <f t="shared" ref="C30" si="3">C7-C8</f>
+        <f t="shared" ref="C30" si="1">C7-C8</f>
         <v>9708375</v>
       </c>
       <c r="D30" s="8">
@@ -4275,7 +4305,7 @@
         <v>7445453</v>
       </c>
       <c r="C31" s="8">
-        <f t="shared" ref="C31" si="4">C6-C7</f>
+        <f t="shared" ref="C31" si="2">C6-C7</f>
         <v>10811592</v>
       </c>
       <c r="D31" s="8">
@@ -4300,7 +4330,7 @@
         <v>-12430258</v>
       </c>
       <c r="C32" s="8">
-        <f t="shared" ref="C32" si="5">IF(ISBLANK(C9),0,C9-C8)</f>
+        <f t="shared" ref="C32" si="3">IF(ISBLANK(C9),0,C9-C8)</f>
         <v>-11352422</v>
       </c>
       <c r="D32" s="8">
@@ -4325,7 +4355,7 @@
         <v>19264035</v>
       </c>
       <c r="C33" s="8">
-        <f t="shared" ref="C33" si="6">IF(ISBLANK(C5),0,C5-C6)</f>
+        <f t="shared" ref="C33" si="4">IF(ISBLANK(C5),0,C5-C6)</f>
         <v>2053263</v>
       </c>
       <c r="D33" s="8">
